--- a/data/trans_camb/P50_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P50_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,5</t>
+          <t>-5,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>-8,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-4,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,08</t>
+          <t>-4,64</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>-7,97</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>-7,83</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-7,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,36</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-4,78</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-6,33</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-5,43</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-3,86</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 3,56</t>
+          <t>-23,71; 11,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 5,84</t>
+          <t>-19,84; 8,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 4,05</t>
+          <t>-18,49; 11,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 15,87</t>
+          <t>-28,52; 6,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 7,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 3,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 0,74</t>
+          <t>-17,05; 8,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 14,5</t>
+          <t>-19,17; 3,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 3,88</t>
+          <t>-18,88; 3,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 2,26</t>
+          <t>-13,61; 12,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-13,63; -1,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 12,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-14,81; 4,57</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-15,54; 2,47</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-14,93; 3,26</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-14,76; 6,09</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-14,86%</t>
+          <t>-11,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,64%</t>
+          <t>-9,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-15,72%</t>
+          <t>-5,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>-19,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-14,8%</t>
+          <t>-9,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,86%</t>
+          <t>-15,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-7,4%</t>
+          <t>-15,49%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-8,18%</t>
+          <t>-1,87%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-15,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-9,92%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-13,15%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-11,29%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-8,01%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-36,24; 7,72</t>
+          <t>-44,06; 30,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 12,63</t>
+          <t>-36,31; 24,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,96; 9,07</t>
+          <t>-32,85; 31,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 36,74</t>
+          <t>-51,34; 15,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 17,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,74; 6,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,05; 1,69</t>
+          <t>-29,49; 19,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 32,82</t>
+          <t>-32,73; 7,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 8,41</t>
+          <t>-32,06; 6,73</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-19,07; 4,86</t>
+          <t>-24,47; 29,1</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-26,63; -2,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 28,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-28,35; 10,83</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-28,55; 6,8</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-26,43; 7,61</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-28,41; 13,93</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>-8,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,16</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,23</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,97</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-2,72</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-3,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-6,89</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-0,76</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 2,82</t>
+          <t>-16,89; -0,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 3,2</t>
+          <t>-13,45; 3,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 3,25</t>
+          <t>-11,7; 4,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,25; 17,73</t>
+          <t>-13,67; 5,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,17; -2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 2,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 1,01</t>
+          <t>-13,05; 1,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 10,53</t>
+          <t>-5,53; 9,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-10,32; -2,02</t>
+          <t>-7,29; 7,68</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 1,42</t>
+          <t>-5,77; 9,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 1,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 12,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-12,95; -1,39</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-7,55; 3,43</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-7,37; 3,49</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-6,87; 4,93</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-10,73%</t>
+          <t>-24,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-8,81%</t>
+          <t>-13,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-8,23%</t>
+          <t>-8,27%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>-10,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-20,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-10,29%</t>
+          <t>-14,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>11,0%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-15,74%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-7,18%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-9,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-18,97%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-4,37%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-4,63%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-2,08%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 8,92</t>
+          <t>-42,09; -0,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 10,07</t>
+          <t>-32,96; 10,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 9,84</t>
+          <t>-27,98; 16,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,05; 55,31</t>
+          <t>-32,47; 17,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,58; -5,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,06; 7,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,25; 2,62</t>
+          <t>-31,96; 5,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 27,3</t>
+          <t>-13,09; 28,81</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-25,85; -5,68</t>
+          <t>-17,51; 23,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 4,27</t>
+          <t>-13,97; 29,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-19,41; 3,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,7; 34,16</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-32,92; -4,45</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-18,62; 10,47</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-18,86; 10,64</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-17,66; 15,11</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-6,93</t>
+          <t>-3,34</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,73</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,41</t>
+          <t>-6,86</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,18</t>
+          <t>-3,26</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-2,74</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-2,67</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-2,18</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 5,21</t>
+          <t>-5,59; 10,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,42; -1,49</t>
+          <t>-9,95; 3,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -0,36</t>
+          <t>-7,6; 6,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 12,22</t>
+          <t>-4,37; 12,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,91; -1,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 2,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,21; -0,15</t>
+          <t>-13,68; 0,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,1; 17,19</t>
+          <t>-8,95; 4,4</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,38; 0,36</t>
+          <t>-8,99; 3,41</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-9,29; -1,18</t>
+          <t>-8,27; 4,94</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-9,47; -1,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 12,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,92; 2,27</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-7,4; 1,85</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-7,08; 2,45</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-4,6; 6,07</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,03%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-31,55%</t>
+          <t>-19,38%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-26,09%</t>
+          <t>-4,83%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-28,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-15,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-22,09%</t>
+          <t>-30,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>38,49%</t>
+          <t>-8,86%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-18,0%</t>
+          <t>-14,67%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-22,69%</t>
+          <t>-7,62%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-23,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-13,76%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-13,43%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-10,97%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-31,48; 28,97</t>
+          <t>-26,61; 80,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,87; -7,18</t>
+          <t>-46,76; 28,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,0; -1,3</t>
+          <t>-36,18; 47,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,54; 58,37</t>
+          <t>-21,78; 92,86</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,21; -4,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,58; 10,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,34; -1,32</t>
+          <t>-51,62; 2,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,86; 81,37</t>
+          <t>-32,89; 25,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,32; 1,5</t>
+          <t>-34,49; 17,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-36,26; -5,51</t>
+          <t>-31,3; 27,55</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-36,7; -6,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,43; 56,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-35,02; 13,5</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-32,28; 11,12</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-30,68; 14,13</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-20,44; 35,37</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,94</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,54</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,66</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-5,86</t>
+          <t>-5,56</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,03</t>
+          <t>-3,71</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-5,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>9,45</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-3,47</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-2,66</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 0,81</t>
+          <t>-7,81; 5,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,46; -0,09</t>
+          <t>-4,42; 9,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,55; -0,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,28; 15,37</t>
+          <t>-7,25; 7,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,47; -2,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,3; -0,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -2,44</t>
+          <t>-10,66; -0,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,58; 11,9</t>
+          <t>-9,94; 2,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-8,24; -2,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-6,58; -1,18</t>
+          <t>-10,88; 1,84</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-7,93; -2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,47; 12,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-7,44; 0,51</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-5,19; 4,43</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; 1,86</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,44%</t>
+          <t>-3,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-11,4%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-17,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-15,41%</t>
+          <t>-13,63%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>21,13%</t>
+          <t>-9,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-14,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-10,42%</t>
+          <t>-11,59%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-14,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>26,28%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-9,07%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-1,41%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-6,95%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 2,67</t>
+          <t>-20,39; 17,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-20,84; -0,26</t>
+          <t>-12,13; 29,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-24,1; -0,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,47; 47,43</t>
+          <t>-19,3; 20,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,32; -7,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,39; -0,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-24,33; -6,74</t>
+          <t>-25,36; -0,09</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,75; 32,38</t>
+          <t>-23,73; 6,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-21,98; -7,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-17,7; -3,46</t>
+          <t>-25,82; 4,68</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-21,26; -6,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,39; 36,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-18,74; 1,54</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-12,96; 12,35</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-18,51; 5,12</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-4,11</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-3,92</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,31</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-3,12</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-6,71</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-3,8</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-5,47</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-2,42</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-5,43</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-3,85</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-4,9</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-2,76</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-7,88; 0,57</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-7,56; 0,3</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-8,79; 0,09</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 1,26</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-10,2; -3,3</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-7,46; -0,49</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-8,93; -1,76</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-6,61; 1,51</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-8,28; -2,51</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-6,42; -1,12</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-7,65; -2,2</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-5,44; 0,43</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-12,15%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-11,58%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-12,73%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-9,23%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-17,67%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-10,02%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-14,41%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-6,39%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-15,11%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-10,72%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-13,63%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-7,67%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-22,09; 1,79</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-21,23; 0,95</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-24,58; 0,77</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-21,29; 3,99</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-25,68; -9,0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-18,59; -1,38</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-22,19; -4,89</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-16,23; 4,41</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-21,99; -7,17</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-17,25; -3,41</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-20,25; -6,21</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-14,79; 1,28</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
